--- a/other stuff/Precio.xlsx
+++ b/other stuff/Precio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alumno\Desktop\Proyecto\other stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jeremias\Escritorio\Trabajos colegio\Proyecto final\other stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D0DDC1-20B6-41CD-A734-DC23F6F1F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808CC818-31B3-4B86-90E6-0B306E381DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
+    <workbookView xWindow="-22905" yWindow="1335" windowWidth="21600" windowHeight="11295" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -57,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -167,7 +166,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -180,29 +179,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -522,7 +521,7 @@
   <dimension ref="C2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,113 +544,115 @@
       </c>
     </row>
     <row r="4" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>600</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>30</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>315</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>50</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>414</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>450</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>200</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>60</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>650</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>1000</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>3907</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="10"/>
-      <c r="D8" s="9">
+      <c r="C8" s="8">
+        <v>2600</v>
+      </c>
+      <c r="D8" s="7">
         <v>2618</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="10"/>
-      <c r="D9" s="9">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7">
         <v>311</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="10"/>
-      <c r="D10" s="11">
+      <c r="C10" s="8"/>
+      <c r="D10" s="9">
         <v>440</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="10"/>
-      <c r="D11" s="11">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9">
         <v>830</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="10"/>
-      <c r="D12" s="11">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9">
         <v>450</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <f>SUM(C4:C17)</f>
-        <v>1500</v>
+        <v>4100</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D4:D17)</f>
@@ -666,21 +667,21 @@
       <c r="C19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="10">
         <f>SUM(C18:E18)</f>
-        <v>12345</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>14945</v>
+      </c>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="10">
         <f>(D19/3)</f>
-        <v>4115</v>
-      </c>
-      <c r="E20" s="7"/>
+        <v>4981.666666666667</v>
+      </c>
+      <c r="E20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/other stuff/Precio.xlsx
+++ b/other stuff/Precio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jeremias\Escritorio\Trabajos colegio\Proyecto final\other stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alumno\Desktop\Proyecto\other stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808CC818-31B3-4B86-90E6-0B306E381DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C1E678-A087-46AA-A50C-09D14803C4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22905" yWindow="1335" windowWidth="21600" windowHeight="11295" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -166,7 +166,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -179,28 +179,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -521,7 +521,7 @@
   <dimension ref="C2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,21 +594,33 @@
       <c r="D8" s="7">
         <v>2618</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9">
+        <v>2654</v>
+      </c>
     </row>
     <row r="9" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="8"/>
+      <c r="C9" s="8">
+        <v>1200</v>
+      </c>
       <c r="D9" s="7">
         <v>311</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9">
+        <f>3782/2</f>
+        <v>1891</v>
+      </c>
     </row>
     <row r="10" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
+      <c r="C10" s="8">
+        <v>650</v>
+      </c>
       <c r="D10" s="9">
         <v>440</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9">
+        <f>4700/2</f>
+        <v>2350</v>
+      </c>
     </row>
     <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
@@ -652,7 +664,7 @@
     <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <f>SUM(C4:C17)</f>
-        <v>4100</v>
+        <v>5950</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D4:D17)</f>
@@ -660,7 +672,7 @@
       </c>
       <c r="E18" s="5">
         <f>SUM(E4:E17)</f>
-        <v>4692</v>
+        <v>11587</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -669,7 +681,7 @@
       </c>
       <c r="D19" s="10">
         <f>SUM(C18:E18)</f>
-        <v>14945</v>
+        <v>23690</v>
       </c>
       <c r="E19" s="11"/>
     </row>
@@ -679,7 +691,7 @@
       </c>
       <c r="D20" s="10">
         <f>(D19/3)</f>
-        <v>4981.666666666667</v>
+        <v>7896.666666666667</v>
       </c>
       <c r="E20" s="11"/>
     </row>

--- a/other stuff/Precio.xlsx
+++ b/other stuff/Precio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alumno\Desktop\Proyecto\other stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jeremias\Escritorio\Trabajos colegio\Proyecto final\other stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C1E678-A087-46AA-A50C-09D14803C4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0350FC6-FED3-4C48-8494-1AD2F812B798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -56,11 +56,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +81,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,9 +174,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -179,30 +187,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -518,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C616F610-8CCD-41A3-8661-2BDF74AD2FD8}">
-  <dimension ref="C2:E20"/>
+  <dimension ref="C2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,8 +540,8 @@
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6">
         <v>600</v>
       </c>
@@ -554,7 +563,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="6">
         <v>50</v>
       </c>
@@ -565,7 +574,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <v>200</v>
       </c>
@@ -576,7 +585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="8">
         <v>650</v>
       </c>
@@ -587,7 +596,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="8">
         <v>2600</v>
       </c>
@@ -598,7 +607,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="8">
         <v>1200</v>
       </c>
@@ -610,7 +619,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <v>650</v>
       </c>
@@ -622,36 +631,41 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="8"/>
+    <row r="11" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="8">
+        <v>200</v>
+      </c>
       <c r="D11" s="9">
         <v>830</v>
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8"/>
+    <row r="12" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="8">
+        <v>690</v>
+      </c>
       <c r="D12" s="9">
         <v>450</v>
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -664,7 +678,7 @@
     <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <f>SUM(C4:C17)</f>
-        <v>5950</v>
+        <v>6840</v>
       </c>
       <c r="D18" s="5">
         <f>SUM(D4:D17)</f>
@@ -681,7 +695,7 @@
       </c>
       <c r="D19" s="10">
         <f>SUM(C18:E18)</f>
-        <v>23690</v>
+        <v>24580</v>
       </c>
       <c r="E19" s="11"/>
     </row>
@@ -691,7 +705,7 @@
       </c>
       <c r="D20" s="10">
         <f>(D19/3)</f>
-        <v>7896.666666666667</v>
+        <v>8193.3333333333339</v>
       </c>
       <c r="E20" s="11"/>
     </row>

--- a/other stuff/Precio.xlsx
+++ b/other stuff/Precio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jeremias\Escritorio\Trabajos colegio\Proyecto final\other stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0350FC6-FED3-4C48-8494-1AD2F812B798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98152B75-2313-4166-A0E6-B6C05290402B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
   </bookViews>
@@ -55,10 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+  <numFmts count="2">
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -176,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -184,34 +183,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -530,7 +526,7 @@
   <dimension ref="C2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,159 +549,159 @@
       </c>
     </row>
     <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>600</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>30</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>315</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>50</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>414</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>450</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>200</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>60</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>650</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>1000</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>3907</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>2600</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>2618</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>2654</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>1200</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>311</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <f>3782/2</f>
         <v>1891</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>650</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>440</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <f>4700/2</f>
         <v>2350</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>200</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>830</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
-        <v>690</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C12" s="6">
+        <v>370</v>
+      </c>
+      <c r="D12" s="7">
         <v>450</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="G13" s="12"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="4">
+      <c r="C18" s="8">
         <f>SUM(C4:C17)</f>
-        <v>6840</v>
-      </c>
-      <c r="D18" s="5">
+        <v>6520</v>
+      </c>
+      <c r="D18" s="9">
         <f>SUM(D4:D17)</f>
         <v>6153</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="9">
         <f>SUM(E4:E17)</f>
         <v>11587</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="10">
         <f>SUM(C18:E18)</f>
-        <v>24580</v>
+        <v>24260</v>
       </c>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="10">
         <f>(D19/3)</f>
-        <v>8193.3333333333339</v>
+        <v>8086.666666666667</v>
       </c>
       <c r="E20" s="11"/>
     </row>

--- a/other stuff/Precio.xlsx
+++ b/other stuff/Precio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jeremias\Escritorio\Trabajos colegio\Proyecto final\other stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98152B75-2313-4166-A0E6-B6C05290402B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AD934F-7CC4-4E2A-88EA-3AFA996EE5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Jere</t>
   </si>
@@ -50,14 +50,24 @@
   <si>
     <t>TOT C/U</t>
   </si>
+  <si>
+    <t>TOT Jere</t>
+  </si>
+  <si>
+    <t>TOT Teo</t>
+  </si>
+  <si>
+    <t>TOT Chuco</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -97,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -170,43 +180,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -523,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C616F610-8CCD-41A3-8661-2BDF74AD2FD8}">
-  <dimension ref="C2:G20"/>
+  <dimension ref="C2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,177 +670,216 @@
   <sheetData>
     <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>600</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>30</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>315</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>50</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>414</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>450</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>200</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>60</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>650</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>1000</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>3907</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>2600</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>2618</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>2654</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1200</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>311</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f>3782/2</f>
         <v>1891</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>650</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>440</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f>4700/2</f>
         <v>2350</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>200</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>830</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>370</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>450</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="G13" s="3"/>
+      <c r="C13" s="5">
+        <v>5300</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="8">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="7">
         <f>SUM(C4:C17)</f>
-        <v>6520</v>
-      </c>
-      <c r="D18" s="9">
+        <v>11820</v>
+      </c>
+      <c r="D18" s="19">
         <f>SUM(D4:D17)</f>
         <v>6153</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="19">
         <f>SUM(E4:E17)</f>
         <v>11587</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="8" t="s">
+    <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <f>SUM(C18:E18)</f>
-        <v>24260</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="8" t="s">
+        <v>29560</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="11">
         <f>(D19/3)</f>
-        <v>8086.666666666667</v>
-      </c>
-      <c r="E20" s="11"/>
+        <v>9853.3333333333339</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="14">
+        <f>SUM(C4:C17)/3</f>
+        <v>3940</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="14">
+        <f>SUM(D4:D17)/3</f>
+        <v>2051</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="18">
+        <f>SUM(E4:E17)/3</f>
+        <v>3862.3333333333335</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other stuff/Precio.xlsx
+++ b/other stuff/Precio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jeremias\Escritorio\Trabajos colegio\Proyecto final\other stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chuco\Programming\other stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AD934F-7CC4-4E2A-88EA-3AFA996EE5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88C5846-6419-4539-8BAF-F5C4ACF33345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -285,10 +285,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -304,41 +303,41 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -655,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C616F610-8CCD-41A3-8661-2BDF74AD2FD8}">
-  <dimension ref="C2:H28"/>
+  <dimension ref="C2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,208 +669,208 @@
   <sheetData>
     <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>600</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>30</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>315</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>50</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>414</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>450</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>200</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>60</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>650</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>1000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>3907</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>2600</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>2618</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>2654</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1200</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>311</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f>3782/2</f>
         <v>1891</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>650</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>440</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f>4700/2</f>
         <v>2350</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>200</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>830</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5">
+        <v>2860</v>
+      </c>
     </row>
     <row r="12" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>370</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>450</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5">
+        <v>4390</v>
+      </c>
     </row>
     <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>5300</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="7">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="6">
         <f>SUM(C4:C17)</f>
         <v>11820</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="11">
         <f>SUM(D4:D17)</f>
         <v>6153</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="11">
         <f>SUM(E4:E17)</f>
-        <v>11587</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="7" t="s">
+        <v>18837</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="12">
         <f>SUM(C18:E18)</f>
-        <v>29560</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="10" t="s">
+        <v>36810</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="14">
         <f>(D19/3)</f>
-        <v>9853.3333333333339</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="13" t="s">
+        <v>12270</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="16">
         <f>SUM(C4:C17)/3</f>
         <v>3940</v>
       </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="16" t="s">
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="16">
         <f>SUM(D4:D17)/3</f>
         <v>2051</v>
       </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="17" t="s">
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="18">
         <f>SUM(E4:E17)/3</f>
-        <v>3862.3333333333335</v>
-      </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+        <v>6279</v>
+      </c>
+      <c r="E23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/other stuff/Precio.xlsx
+++ b/other stuff/Precio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chuco\Programming\other stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alumno\Desktop\Proyecto\other stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88C5846-6419-4539-8BAF-F5C4ACF33345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997E424-FA3E-4DFE-803D-F173F209113D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Jere</t>
   </si>
@@ -59,14 +59,17 @@
   <si>
     <t>TOT Chuco</t>
   </si>
+  <si>
+    <t>Precio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -283,9 +286,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -336,9 +339,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -654,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C616F610-8CCD-41A3-8661-2BDF74AD2FD8}">
-  <dimension ref="C2:G23"/>
+  <dimension ref="C2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,10 +675,11 @@
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,8 +689,11 @@
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4">
         <v>600</v>
       </c>
@@ -689,8 +703,11 @@
       <c r="E4" s="5">
         <v>315</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4">
         <v>50</v>
       </c>
@@ -700,8 +717,11 @@
       <c r="E5" s="5">
         <v>450</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="4">
         <v>200</v>
       </c>
@@ -711,8 +731,11 @@
       <c r="E6" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>650</v>
       </c>
@@ -722,8 +745,11 @@
       <c r="E7" s="5">
         <v>3907</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4">
         <v>2600</v>
       </c>
@@ -733,8 +759,12 @@
       <c r="E8" s="5">
         <v>2654</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="20">
+        <f>68/2</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4">
         <v>1200</v>
       </c>
@@ -745,8 +775,11 @@
         <f>3782/2</f>
         <v>1891</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
         <v>650</v>
       </c>
@@ -757,8 +790,11 @@
         <f>4700/2</f>
         <v>2350</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="20">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
         <v>200</v>
       </c>
@@ -768,8 +804,11 @@
       <c r="E11" s="5">
         <v>2860</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="20">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
         <v>370</v>
       </c>
@@ -779,36 +818,56 @@
       <c r="E12" s="5">
         <v>4390</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>5300</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="20">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="20">
+        <f>4*3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="20">
+        <f>13*3</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="6">
         <f>SUM(C4:C17)</f>
         <v>11820</v>
@@ -821,8 +880,11 @@
         <f>SUM(E4:E17)</f>
         <v>18837</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="20">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
@@ -831,8 +893,11 @@
         <v>36810</v>
       </c>
       <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="7" t="s">
         <v>4</v>
       </c>
@@ -841,8 +906,11 @@
         <v>12270</v>
       </c>
       <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="20">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
         <v>5</v>
       </c>
@@ -851,8 +919,11 @@
         <v>3940</v>
       </c>
       <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="9" t="s">
         <v>6</v>
       </c>
@@ -861,8 +932,11 @@
         <v>2051</v>
       </c>
       <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="10" t="s">
         <v>7</v>
       </c>
@@ -871,6 +945,75 @@
         <v>6279</v>
       </c>
       <c r="E23" s="17"/>
+      <c r="H23" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="20">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="21">
+        <f>SUM(H4:H35)</f>
+        <v>7701</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/other stuff/Precio.xlsx
+++ b/other stuff/Precio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alumno\Desktop\Proyecto\other stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jeremias\Escritorio\Trabajos colegio\Proyecto final\other stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997E424-FA3E-4DFE-803D-F173F209113D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926379FB-11B2-44BD-91FC-44DF417E1985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Jere</t>
   </si>
@@ -61,6 +61,105 @@
   </si>
   <si>
     <t>Precio</t>
+  </si>
+  <si>
+    <t>Componentes</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>C. 20pF</t>
+  </si>
+  <si>
+    <t>C. 100nF</t>
+  </si>
+  <si>
+    <t>C. 330nF</t>
+  </si>
+  <si>
+    <t>C. 10uF</t>
+  </si>
+  <si>
+    <t>IDC 2x6</t>
+  </si>
+  <si>
+    <t>IDC 2x5</t>
+  </si>
+  <si>
+    <t>Atmega 328p</t>
+  </si>
+  <si>
+    <t>Esp8266</t>
+  </si>
+  <si>
+    <t>Regulador 3.3v</t>
+  </si>
+  <si>
+    <t>Regulador 5v</t>
+  </si>
+  <si>
+    <t>Cristal 16MHz</t>
+  </si>
+  <si>
+    <t>Regleta de pines 2x4</t>
+  </si>
+  <si>
+    <t>R. 4k7</t>
+  </si>
+  <si>
+    <t>R. 10k</t>
+  </si>
+  <si>
+    <t>Fuente 12v 1A</t>
+  </si>
+  <si>
+    <t>Regleta 8 pines</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>Pulsador</t>
+  </si>
+  <si>
+    <t>R. 470</t>
+  </si>
+  <si>
+    <t>TBJ 2n2222</t>
+  </si>
+  <si>
+    <t>Diodo 1N402</t>
+  </si>
+  <si>
+    <t>Reles 12v 20A</t>
+  </si>
+  <si>
+    <t>Borneras</t>
+  </si>
+  <si>
+    <t>ULN2003</t>
+  </si>
+  <si>
+    <t>R. 220</t>
+  </si>
+  <si>
+    <t>R. 680</t>
+  </si>
+  <si>
+    <t>R. 2k5</t>
+  </si>
+  <si>
+    <t>R. 5k6</t>
+  </si>
+  <si>
+    <t>R. 1k</t>
+  </si>
+  <si>
+    <t>Tbj BC558 PNP</t>
+  </si>
+  <si>
+    <t>Cant.</t>
   </si>
 </sst>
 </file>
@@ -68,11 +167,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,14 +192,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -283,14 +374,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -339,16 +470,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -664,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C616F610-8CCD-41A3-8661-2BDF74AD2FD8}">
-  <dimension ref="C2:H36"/>
+  <dimension ref="C2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,345 +825,597 @@
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+    <row r="2" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
+        <v>600</v>
+      </c>
+      <c r="D4" s="4">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4">
+        <v>315</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="K4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="4">
-        <v>600</v>
-      </c>
-      <c r="D4" s="5">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5">
-        <v>315</v>
-      </c>
-      <c r="H4" s="20">
+    <row r="5" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4">
+        <v>414</v>
+      </c>
+      <c r="E5" s="4">
+        <v>450</v>
+      </c>
+      <c r="K5" s="26">
+        <v>2</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="19">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="4">
-        <v>50</v>
-      </c>
-      <c r="D5" s="5">
-        <v>414</v>
-      </c>
-      <c r="E5" s="5">
-        <v>450</v>
-      </c>
-      <c r="H5" s="20">
+    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3">
+        <v>200</v>
+      </c>
+      <c r="D6" s="4">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+      <c r="K6" s="26">
+        <v>2</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="19">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="4">
-        <v>200</v>
-      </c>
-      <c r="D6" s="5">
-        <v>60</v>
-      </c>
-      <c r="E6" s="5">
-        <v>20</v>
-      </c>
-      <c r="H6" s="20">
+    <row r="7" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>650</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3907</v>
+      </c>
+      <c r="K7" s="26">
+        <v>1</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="4">
-        <v>650</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="5">
-        <v>3907</v>
-      </c>
-      <c r="H7" s="20">
+    <row r="8" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2618</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2654</v>
+      </c>
+      <c r="K8" s="26">
+        <v>1</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="4">
-        <v>2600</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2618</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2654</v>
-      </c>
-      <c r="H8" s="20">
+    <row r="9" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="4">
+        <v>311</v>
+      </c>
+      <c r="E9" s="4">
+        <f>3782/2</f>
+        <v>1891</v>
+      </c>
+      <c r="K9" s="26">
+        <v>2</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="19">
         <f>68/2</f>
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="4">
-        <v>1200</v>
-      </c>
-      <c r="D9" s="5">
-        <v>311</v>
-      </c>
-      <c r="E9" s="5">
-        <f>3782/2</f>
-        <v>1891</v>
-      </c>
-      <c r="H9" s="20">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="4">
+    <row r="10" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
         <v>650</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>440</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f>4700/2</f>
         <v>2350</v>
       </c>
-      <c r="H10" s="20">
+      <c r="K10" s="26">
+        <v>2</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>200</v>
+      </c>
+      <c r="D11" s="4">
+        <v>830</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2860</v>
+      </c>
+      <c r="K11" s="26">
+        <v>1</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="19">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="4">
-        <v>200</v>
-      </c>
-      <c r="D11" s="5">
-        <v>830</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2860</v>
-      </c>
-      <c r="H11" s="20">
+    <row r="12" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>370</v>
+      </c>
+      <c r="D12" s="4">
+        <v>450</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4390</v>
+      </c>
+      <c r="K12" s="26">
+        <v>1</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="19">
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="4">
-        <v>370</v>
-      </c>
-      <c r="D12" s="5">
-        <v>450</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4390</v>
-      </c>
-      <c r="H12" s="20">
+    <row r="13" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>5300</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="K13" s="26">
+        <v>1</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="4">
-        <v>5300</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="20">
+    <row r="14" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="K14" s="26">
+        <v>1</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="19">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="H14" s="20">
+    <row r="15" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="K15" s="26">
+        <v>1</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="19">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="H15" s="20">
+    <row r="16" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="K16" s="26">
+        <v>1</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="H16" s="20">
+    <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="K17" s="26">
+        <v>4</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="19">
         <f>4*3</f>
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="H17" s="20">
+    <row r="18" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <f>SUM(C4:C17)</f>
+        <v>11820</v>
+      </c>
+      <c r="D18" s="10">
+        <f>SUM(D4:D17)</f>
+        <v>6153</v>
+      </c>
+      <c r="E18" s="10">
+        <f>SUM(E4:E17)</f>
+        <v>18837</v>
+      </c>
+      <c r="K18" s="26">
+        <v>13</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="24"/>
+      <c r="N18" s="19">
         <f>13*3</f>
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="6">
-        <f>SUM(C4:C17)</f>
-        <v>11820</v>
-      </c>
-      <c r="D18" s="11">
-        <f>SUM(D4:D17)</f>
-        <v>6153</v>
-      </c>
-      <c r="E18" s="11">
-        <f>SUM(E4:E17)</f>
-        <v>18837</v>
-      </c>
-      <c r="H18" s="20">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="6" t="s">
+    <row r="19" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f>SUM(C18:E18)</f>
         <v>36810</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="H19" s="20">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="7" t="s">
+      <c r="E19" s="12"/>
+      <c r="K19" s="26">
+        <v>1</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="24"/>
+      <c r="N19" s="19">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <f>(D19/3)</f>
         <v>12270</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="H20" s="20">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="8" t="s">
+      <c r="E20" s="14"/>
+      <c r="K20" s="26">
+        <v>3</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="24"/>
+      <c r="N20" s="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <f>SUM(C4:C17)/3</f>
         <v>3940</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="H21" s="20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="9" t="s">
+      <c r="E21" s="16"/>
+      <c r="K21" s="26">
+        <v>1</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="24"/>
+      <c r="N21" s="19">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <f>SUM(D4:D17)/3</f>
         <v>2051</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="H22" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="10" t="s">
+      <c r="E22" s="16"/>
+      <c r="K22" s="26">
+        <v>4</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="17">
         <f>SUM(E4:E17)/3</f>
         <v>6279</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="H23" s="20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="20">
+      <c r="E23" s="16"/>
+      <c r="K23" s="26">
+        <v>3</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K24" s="26">
+        <v>3</v>
+      </c>
+      <c r="L24" s="23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="20">
+      <c r="M24" s="24"/>
+      <c r="N24" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K25" s="26">
+        <v>3</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="19">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="20">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K26" s="26">
+        <v>3</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="19">
         <v>1800</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="20">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K27" s="26">
+        <v>5</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="24"/>
+      <c r="N27" s="19">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="20">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K28" s="26">
+        <v>1</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="24"/>
+      <c r="N28" s="19">
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="20">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K29" s="26">
+        <v>4</v>
+      </c>
+      <c r="L29" s="23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="20">
+      <c r="M29" s="24"/>
+      <c r="N29" s="19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K30" s="26">
+        <v>1</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="24"/>
+      <c r="N30" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="20">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K31" s="26">
+        <v>1</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="24"/>
+      <c r="N31" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="20">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K32" s="26">
+        <v>1</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" s="24"/>
+      <c r="N32" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="20">
+    <row r="33" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K33" s="26">
+        <v>1</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="24"/>
+      <c r="N33" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="20">
+    <row r="34" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K34" s="26">
+        <v>1</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="24"/>
+      <c r="N34" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="21">
-        <f>SUM(H4:H35)</f>
-        <v>7701</v>
+    <row r="35" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K35" s="26">
+        <f>SUM(K5:K34)</f>
+        <v>69</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="22"/>
+      <c r="N35" s="25">
+        <f>SUM(N5:N34)</f>
+        <v>7672</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="37">
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>

--- a/other stuff/Precio.xlsx
+++ b/other stuff/Precio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jeremias\Escritorio\Trabajos colegio\Proyecto final\other stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chuco\Programming\other stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926379FB-11B2-44BD-91FC-44DF417E1985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FFD3F0-1C28-4445-AFFC-D52533E31352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Jere</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>Cant.</t>
+  </si>
+  <si>
+    <t>prototipo 1</t>
+  </si>
+  <si>
+    <t>C. 10pF</t>
+  </si>
+  <si>
+    <t>Reles 12v 10A</t>
+  </si>
+  <si>
+    <t>prototipo 2</t>
   </si>
 </sst>
 </file>
@@ -201,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -415,12 +427,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,6 +473,27 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -473,28 +515,14 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -811,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C616F610-8CCD-41A3-8661-2BDF74AD2FD8}">
-  <dimension ref="C2:N35"/>
+  <dimension ref="C2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,8 +853,8 @@
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,10 +864,20 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+    </row>
+    <row r="4" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>600</v>
       </c>
@@ -849,20 +887,28 @@
       <c r="E4" s="4">
         <v>315</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="18" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3">
         <v>50</v>
       </c>
@@ -872,18 +918,28 @@
       <c r="E5" s="4">
         <v>450</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="13">
         <v>2</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="19">
+      <c r="M5" s="16"/>
+      <c r="N5" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="13">
+        <v>1</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3">
         <v>200</v>
       </c>
@@ -893,18 +949,28 @@
       <c r="E6" s="4">
         <v>20</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="13">
         <v>2</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="19">
+      <c r="M6" s="16"/>
+      <c r="N6" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="13">
+        <v>2</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>650</v>
       </c>
@@ -914,18 +980,28 @@
       <c r="E7" s="4">
         <v>3907</v>
       </c>
-      <c r="K7" s="26">
-        <v>1</v>
-      </c>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="13">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="19">
+      <c r="M7" s="16"/>
+      <c r="N7" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="13">
+        <v>1</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>2600</v>
       </c>
@@ -935,18 +1011,29 @@
       <c r="E8" s="4">
         <v>2654</v>
       </c>
-      <c r="K8" s="26">
-        <v>1</v>
-      </c>
-      <c r="L8" s="23" t="s">
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="19">
+      <c r="M8" s="16"/>
+      <c r="N8" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="13">
+        <v>2</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="12">
+        <f>68/2</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>1200</v>
       </c>
@@ -957,19 +1044,29 @@
         <f>3782/2</f>
         <v>1891</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="13">
         <v>2</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="19">
+      <c r="M9" s="16"/>
+      <c r="N9" s="12">
         <f>68/2</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="13">
+        <v>2</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>650</v>
       </c>
@@ -980,18 +1077,28 @@
         <f>4700/2</f>
         <v>2350</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="13">
         <v>2</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="19">
+      <c r="M10" s="16"/>
+      <c r="N10" s="12">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="13">
+        <v>1</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="12">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>200</v>
       </c>
@@ -1001,18 +1108,28 @@
       <c r="E11" s="4">
         <v>2860</v>
       </c>
-      <c r="K11" s="26">
-        <v>1</v>
-      </c>
-      <c r="L11" s="23" t="s">
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="19">
+      <c r="M11" s="16"/>
+      <c r="N11" s="12">
         <v>2600</v>
       </c>
-    </row>
-    <row r="12" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="13">
+        <v>1</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>370</v>
       </c>
@@ -1022,96 +1139,158 @@
       <c r="E12" s="4">
         <v>4390</v>
       </c>
-      <c r="K12" s="26">
-        <v>1</v>
-      </c>
-      <c r="L12" s="23" t="s">
+      <c r="K12" s="13">
+        <v>1</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="19">
+      <c r="M12" s="16"/>
+      <c r="N12" s="12">
         <v>1100</v>
       </c>
-    </row>
-    <row r="13" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="13">
+        <v>1</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>5300</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="K13" s="26">
-        <v>1</v>
-      </c>
-      <c r="L13" s="23" t="s">
+      <c r="K13" s="13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="19">
+      <c r="M13" s="16"/>
+      <c r="N13" s="12">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="13">
+        <v>4</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="12">
+        <f>4*3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="K14" s="26">
-        <v>1</v>
-      </c>
-      <c r="L14" s="23" t="s">
+      <c r="K14" s="13">
+        <v>1</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="19">
+      <c r="M14" s="16"/>
+      <c r="N14" s="12">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O14" s="13">
+        <v>13</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="12">
+        <f>13*3</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="K15" s="26">
-        <v>1</v>
-      </c>
-      <c r="L15" s="23" t="s">
+      <c r="K15" s="13">
+        <v>1</v>
+      </c>
+      <c r="L15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="19">
+      <c r="M15" s="16"/>
+      <c r="N15" s="12">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="13">
+        <v>1</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="12">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="K16" s="26">
-        <v>1</v>
-      </c>
-      <c r="L16" s="23" t="s">
+      <c r="K16" s="13">
+        <v>1</v>
+      </c>
+      <c r="L16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="19">
+      <c r="M16" s="16"/>
+      <c r="N16" s="12">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="13">
+        <v>3</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="K17" s="26">
+      <c r="K17" s="13">
         <v>4</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="19">
+      <c r="M17" s="16"/>
+      <c r="N17" s="12">
         <f>4*3</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="13">
+        <v>1</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="12">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
         <f>SUM(C4:C17)</f>
         <v>11820</v>
@@ -1124,266 +1303,458 @@
         <f>SUM(E4:E17)</f>
         <v>18837</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="13">
         <v>13</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="19">
+      <c r="M18" s="16"/>
+      <c r="N18" s="12">
         <f>13*3</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="13">
+        <v>4</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="18">
         <f>SUM(C18:E18)</f>
         <v>36810</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="K19" s="26">
-        <v>1</v>
-      </c>
-      <c r="L19" s="23" t="s">
+      <c r="E19" s="19"/>
+      <c r="K19" s="13">
+        <v>1</v>
+      </c>
+      <c r="L19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="19">
+      <c r="M19" s="16"/>
+      <c r="N19" s="12">
         <v>700</v>
       </c>
-    </row>
-    <row r="20" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="13">
+        <v>3</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="20">
         <f>(D19/3)</f>
         <v>12270</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="K20" s="26">
-        <v>3</v>
-      </c>
-      <c r="L20" s="23" t="s">
+      <c r="E20" s="21"/>
+      <c r="K20" s="13">
+        <v>3</v>
+      </c>
+      <c r="L20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="19">
+      <c r="M20" s="16"/>
+      <c r="N20" s="12">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="13">
+        <v>3</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="22">
         <f>SUM(C4:C17)/3</f>
         <v>3940</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="K21" s="26">
-        <v>1</v>
-      </c>
-      <c r="L21" s="23" t="s">
+      <c r="E21" s="23"/>
+      <c r="K21" s="13">
+        <v>1</v>
+      </c>
+      <c r="L21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="19">
+      <c r="M21" s="16"/>
+      <c r="N21" s="12">
         <v>370</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="13">
+        <v>3</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="22">
         <f>SUM(D4:D17)/3</f>
         <v>2051</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="K22" s="26">
+      <c r="E22" s="23"/>
+      <c r="K22" s="13">
         <v>4</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="19">
+      <c r="M22" s="16"/>
+      <c r="N22" s="12">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="13">
+        <v>3</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="12">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="24">
         <f>SUM(E4:E17)/3</f>
         <v>6279</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="K23" s="26">
-        <v>3</v>
-      </c>
-      <c r="L23" s="23" t="s">
+      <c r="E23" s="23"/>
+      <c r="K23" s="13">
+        <v>3</v>
+      </c>
+      <c r="L23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="19">
+      <c r="M23" s="16"/>
+      <c r="N23" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K24" s="26">
-        <v>3</v>
-      </c>
-      <c r="L24" s="23" t="s">
+      <c r="O23" s="13">
+        <v>5</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K24" s="13">
+        <v>3</v>
+      </c>
+      <c r="L24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="19">
+      <c r="M24" s="16"/>
+      <c r="N24" s="12">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K25" s="26">
-        <v>3</v>
-      </c>
-      <c r="L25" s="23" t="s">
+      <c r="O24" s="13">
+        <v>1</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K25" s="13">
+        <v>3</v>
+      </c>
+      <c r="L25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="19">
+      <c r="M25" s="16"/>
+      <c r="N25" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K26" s="26">
-        <v>3</v>
-      </c>
-      <c r="L26" s="23" t="s">
+      <c r="O25" s="13">
+        <v>4</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K26" s="13">
+        <v>3</v>
+      </c>
+      <c r="L26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="19">
+      <c r="M26" s="16"/>
+      <c r="N26" s="12">
         <v>1800</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K27" s="26">
+      <c r="O26" s="13">
+        <v>1</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K27" s="13">
         <v>5</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="19">
+      <c r="M27" s="16"/>
+      <c r="N27" s="12">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K28" s="26">
-        <v>1</v>
-      </c>
-      <c r="L28" s="23" t="s">
+      <c r="O27" s="13">
+        <v>1</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K28" s="13">
+        <v>1</v>
+      </c>
+      <c r="L28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="19">
+      <c r="M28" s="16"/>
+      <c r="N28" s="12">
         <v>250</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K29" s="26">
+      <c r="O28" s="13">
+        <v>1</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K29" s="13">
         <v>4</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="24"/>
-      <c r="N29" s="19">
+      <c r="M29" s="16"/>
+      <c r="N29" s="12">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K30" s="26">
-        <v>1</v>
-      </c>
-      <c r="L30" s="23" t="s">
+      <c r="O29" s="13">
+        <v>1</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K30" s="13">
+        <v>1</v>
+      </c>
+      <c r="L30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M30" s="24"/>
-      <c r="N30" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K31" s="26">
-        <v>1</v>
-      </c>
-      <c r="L31" s="23" t="s">
+      <c r="M30" s="16"/>
+      <c r="N30" s="12">
+        <v>3</v>
+      </c>
+      <c r="O30" s="13">
+        <v>1</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K31" s="13">
+        <v>1</v>
+      </c>
+      <c r="L31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M31" s="24"/>
-      <c r="N31" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K32" s="26">
-        <v>1</v>
-      </c>
-      <c r="L32" s="23" t="s">
+      <c r="M31" s="16"/>
+      <c r="N31" s="12">
+        <v>3</v>
+      </c>
+      <c r="O31" s="13">
+        <f>SUM(O5:O30)</f>
+        <v>64</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="14">
+        <f>SUM(R5:R30)</f>
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K32" s="13">
+        <v>1</v>
+      </c>
+      <c r="L32" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="19">
+      <c r="M32" s="16"/>
+      <c r="N32" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K33" s="26">
-        <v>1</v>
-      </c>
-      <c r="L33" s="23" t="s">
+      <c r="K33" s="13">
+        <v>1</v>
+      </c>
+      <c r="L33" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="24"/>
-      <c r="N33" s="19">
+      <c r="M33" s="16"/>
+      <c r="N33" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K34" s="26">
-        <v>1</v>
-      </c>
-      <c r="L34" s="23" t="s">
+      <c r="K34" s="13">
+        <v>1</v>
+      </c>
+      <c r="L34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="24"/>
-      <c r="N34" s="19">
+      <c r="M34" s="16"/>
+      <c r="N34" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K35" s="26">
+      <c r="K35" s="13">
         <f>SUM(K5:K34)</f>
         <v>69</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="L35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M35" s="22"/>
-      <c r="N35" s="25">
+      <c r="M35" s="17"/>
+      <c r="N35" s="14">
         <f>SUM(N5:N34)</f>
         <v>7672</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="66">
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
@@ -1400,27 +1771,6 @@
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other stuff/Precio.xlsx
+++ b/other stuff/Precio.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chuco\Programming\other stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FFD3F0-1C28-4445-AFFC-D52533E31352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA4534A-363C-415E-9DBE-BC20951A539B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FE0F1B0A-B804-4440-98A7-4736C99B4B35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>Jere</t>
   </si>
@@ -45,145 +47,230 @@
     <t>Chuco</t>
   </si>
   <si>
+    <t>prototipo 1</t>
+  </si>
+  <si>
+    <t>prototipo 2</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
+    <t>Precio total</t>
+  </si>
+  <si>
+    <t>Cant.</t>
+  </si>
+  <si>
+    <t>Componentes</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Capacitor 20pF</t>
+  </si>
+  <si>
+    <t>C. 20pF</t>
+  </si>
+  <si>
+    <t>C. 10pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cable plano 14 pines 1400/m </t>
+  </si>
+  <si>
+    <t>Capacitor 100nF</t>
+  </si>
+  <si>
+    <t>C. 100nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cable plano 10 pines 1000/m </t>
+  </si>
+  <si>
+    <t>Capacitor 10uF</t>
+  </si>
+  <si>
+    <t>C. 10uF</t>
+  </si>
+  <si>
+    <t>C. 330nF</t>
+  </si>
+  <si>
+    <t>conectores macho idc 14 pines 604/3</t>
+  </si>
+  <si>
+    <t>Capacitor 330nF</t>
+  </si>
+  <si>
+    <t>IDC 2x5</t>
+  </si>
+  <si>
+    <t>conectores macho idc 10 pines 640/4</t>
+  </si>
+  <si>
+    <t>IDC 2x5 macho</t>
+  </si>
+  <si>
+    <t>IDC 2x6</t>
+  </si>
+  <si>
+    <t>conectores hembra idc 14 pines 895/3</t>
+  </si>
+  <si>
+    <t>IDC 2x7 macho</t>
+  </si>
+  <si>
+    <t>Esp8266</t>
+  </si>
+  <si>
+    <t>conectores hembra idc 10 pines 875/4</t>
+  </si>
+  <si>
+    <t>IDC 2x7 hembra</t>
+  </si>
+  <si>
+    <t>Atmega 328p</t>
+  </si>
+  <si>
+    <t>Regulador 3.3v</t>
+  </si>
+  <si>
+    <t>IDC 2x5 hembra</t>
+  </si>
+  <si>
+    <t>Regleta de pines 2x4</t>
+  </si>
+  <si>
+    <t>R. 4k7</t>
+  </si>
+  <si>
+    <t>Regulador 5v</t>
+  </si>
+  <si>
+    <t>R. 10k</t>
+  </si>
+  <si>
+    <t>Cristal 16MHz</t>
+  </si>
+  <si>
+    <t>Fuente 12v 1A</t>
+  </si>
+  <si>
+    <t>Regleta 8 pines</t>
+  </si>
+  <si>
     <t>TOT</t>
   </si>
   <si>
+    <t>Encoder</t>
+  </si>
+  <si>
     <t>TOT C/U</t>
   </si>
   <si>
+    <t>Pulsador</t>
+  </si>
+  <si>
     <t>TOT Jere</t>
   </si>
   <si>
+    <t>Resistencia 4k7</t>
+  </si>
+  <si>
+    <t>R. 470</t>
+  </si>
+  <si>
     <t>TOT Teo</t>
   </si>
   <si>
+    <t>Resistencia 10k</t>
+  </si>
+  <si>
+    <t>TBJ 2n2222</t>
+  </si>
+  <si>
     <t>TOT Chuco</t>
   </si>
   <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>Componentes</t>
+    <t>Diodo 1N402</t>
+  </si>
+  <si>
+    <t>Regleta 1x8 pines</t>
+  </si>
+  <si>
+    <t>Reles 12v 10A</t>
+  </si>
+  <si>
+    <t>Borneras</t>
+  </si>
+  <si>
+    <t>ULN2003</t>
+  </si>
+  <si>
+    <t>Resistencia 470</t>
+  </si>
+  <si>
+    <t>Tbj BC558 PNP</t>
+  </si>
+  <si>
+    <t>Reles 12v 20A</t>
+  </si>
+  <si>
+    <t>R. 220</t>
+  </si>
+  <si>
+    <t>R. 680</t>
+  </si>
+  <si>
+    <t>R. 2k5</t>
+  </si>
+  <si>
+    <t>R. 5k6</t>
+  </si>
+  <si>
+    <t>R. 1k</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>C. 20pF</t>
-  </si>
-  <si>
-    <t>C. 100nF</t>
-  </si>
-  <si>
-    <t>C. 330nF</t>
-  </si>
-  <si>
-    <t>C. 10uF</t>
-  </si>
-  <si>
-    <t>IDC 2x6</t>
-  </si>
-  <si>
-    <t>IDC 2x5</t>
-  </si>
-  <si>
-    <t>Atmega 328p</t>
-  </si>
-  <si>
-    <t>Esp8266</t>
-  </si>
-  <si>
-    <t>Regulador 3.3v</t>
-  </si>
-  <si>
-    <t>Regulador 5v</t>
-  </si>
-  <si>
-    <t>Cristal 16MHz</t>
-  </si>
-  <si>
-    <t>Regleta de pines 2x4</t>
-  </si>
-  <si>
-    <t>R. 4k7</t>
-  </si>
-  <si>
-    <t>R. 10k</t>
-  </si>
-  <si>
-    <t>Fuente 12v 1A</t>
-  </si>
-  <si>
-    <t>Regleta 8 pines</t>
-  </si>
-  <si>
-    <t>Encoder</t>
-  </si>
-  <si>
-    <t>Pulsador</t>
-  </si>
-  <si>
-    <t>R. 470</t>
-  </si>
-  <si>
-    <t>TBJ 2n2222</t>
-  </si>
-  <si>
-    <t>Diodo 1N402</t>
-  </si>
-  <si>
-    <t>Reles 12v 20A</t>
-  </si>
-  <si>
-    <t>Borneras</t>
-  </si>
-  <si>
-    <t>ULN2003</t>
-  </si>
-  <si>
-    <t>R. 220</t>
-  </si>
-  <si>
-    <t>R. 680</t>
-  </si>
-  <si>
-    <t>R. 2k5</t>
-  </si>
-  <si>
-    <t>R. 5k6</t>
-  </si>
-  <si>
-    <t>R. 1k</t>
-  </si>
-  <si>
-    <t>Tbj BC558 PNP</t>
-  </si>
-  <si>
-    <t>Cant.</t>
-  </si>
-  <si>
-    <t>prototipo 1</t>
-  </si>
-  <si>
-    <t>C. 10pF</t>
-  </si>
-  <si>
-    <t>Reles 12v 10A</t>
-  </si>
-  <si>
-    <t>prototipo 2</t>
+    <t>Resistencia 220</t>
+  </si>
+  <si>
+    <t>Resistencia 680</t>
+  </si>
+  <si>
+    <t>Resistencia 2k5</t>
+  </si>
+  <si>
+    <t>Resistencia 5k6</t>
+  </si>
+  <si>
+    <t>Resistencia 1k</t>
+  </si>
+  <si>
+    <t>Total AR$</t>
+  </si>
+  <si>
+    <t>Total USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,16 +291,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -436,12 +545,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -486,44 +730,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -543,7 +824,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -839,218 +1120,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C616F610-8CCD-41A3-8661-2BDF74AD2FD8}">
-  <dimension ref="C2:R35"/>
+  <dimension ref="B1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38:N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="1" spans="2:23">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-    </row>
-    <row r="4" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="3">
+    </row>
+    <row r="2" spans="2:23" ht="15.75" customHeight="1">
+      <c r="B2" s="3">
         <v>600</v>
       </c>
+      <c r="C2" s="4">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" ht="15.75" customHeight="1">
+      <c r="B3" s="3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4">
+        <v>414</v>
+      </c>
+      <c r="D3" s="4">
+        <v>450</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="2:23">
+      <c r="B4" s="3">
+        <v>200</v>
+      </c>
+      <c r="C4" s="4">
+        <v>60</v>
+      </c>
       <c r="D4" s="4">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4">
-        <v>315</v>
+        <v>20</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="17"/>
+      <c r="M4" s="36"/>
       <c r="N4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="36"/>
       <c r="R4" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3">
-        <v>50</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="15.75" customHeight="1">
+      <c r="B5" s="3">
+        <v>650</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1000</v>
       </c>
       <c r="D5" s="4">
-        <v>414</v>
-      </c>
-      <c r="E5" s="4">
-        <v>450</v>
+        <v>3907</v>
+      </c>
+      <c r="F5" s="25">
+        <v>2</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="27">
+        <f>2*101/10</f>
+        <v>20.2</v>
       </c>
       <c r="K5" s="13">
         <v>2</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="16"/>
+      <c r="L5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="34"/>
       <c r="N5" s="12">
         <v>17</v>
       </c>
       <c r="O5" s="13">
         <v>1</v>
       </c>
-      <c r="P5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="16"/>
+      <c r="P5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="34"/>
       <c r="R5" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="3">
-        <v>200</v>
+      <c r="T5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6" s="3">
+        <v>2600</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2618</v>
       </c>
       <c r="D6" s="4">
-        <v>60</v>
-      </c>
-      <c r="E6" s="4">
-        <v>20</v>
+        <v>2654</v>
+      </c>
+      <c r="F6" s="25">
+        <v>2</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="27">
+        <f>2*101/10</f>
+        <v>20.2</v>
       </c>
       <c r="K6" s="13">
         <v>2</v>
       </c>
-      <c r="L6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="16"/>
+      <c r="L6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="34"/>
       <c r="N6" s="12">
         <v>17</v>
       </c>
       <c r="O6" s="13">
         <v>2</v>
       </c>
-      <c r="P6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="16"/>
+      <c r="P6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="34"/>
       <c r="R6" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
-        <v>650</v>
+      <c r="T6" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+    </row>
+    <row r="7" spans="2:23">
+      <c r="B7" s="3">
+        <v>1200</v>
+      </c>
+      <c r="C7" s="4">
+        <v>311</v>
       </c>
       <c r="D7" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3907</v>
+        <f>3782/2</f>
+        <v>1891</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="27">
+        <f>158/10</f>
+        <v>15.8</v>
       </c>
       <c r="K7" s="13">
         <v>1</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="16"/>
+      <c r="L7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="34"/>
       <c r="N7" s="12">
         <v>7</v>
       </c>
       <c r="O7" s="13">
         <v>1</v>
       </c>
-      <c r="P7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="34"/>
       <c r="R7" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="3">
-        <v>2600</v>
+      <c r="T7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7">
+        <f>604/2</f>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="15.75" customHeight="1">
+      <c r="B8" s="3">
+        <v>650</v>
+      </c>
+      <c r="C8" s="4">
+        <v>440</v>
       </c>
       <c r="D8" s="4">
-        <v>2618</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2654</v>
+        <f>4700/2</f>
+        <v>2350</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="27">
+        <f>240/10</f>
+        <v>24</v>
       </c>
       <c r="K8" s="13">
         <v>1</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="16"/>
+      <c r="L8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="34"/>
       <c r="N8" s="12">
         <v>7</v>
       </c>
       <c r="O8" s="13">
         <v>2</v>
       </c>
-      <c r="P8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="16"/>
+      <c r="P8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="34"/>
       <c r="R8" s="12">
         <f>68/2</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="3">
-        <v>1200</v>
+      <c r="T8" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8">
+        <f>640/4</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="15.75" customHeight="1">
+      <c r="B9" s="3">
+        <v>200</v>
+      </c>
+      <c r="C9" s="4">
+        <v>830</v>
       </c>
       <c r="D9" s="4">
-        <v>311</v>
-      </c>
-      <c r="E9" s="4">
-        <f>3782/2</f>
-        <v>1891</v>
+        <v>2860</v>
+      </c>
+      <c r="F9" s="25">
+        <v>2</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="27">
+        <f>640/4</f>
+        <v>160</v>
       </c>
       <c r="K9" s="13">
         <v>2</v>
       </c>
-      <c r="L9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="16"/>
+      <c r="L9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="34"/>
       <c r="N9" s="12">
         <f>68/2</f>
         <v>34</v>
@@ -1058,223 +1455,326 @@
       <c r="O9" s="13">
         <v>2</v>
       </c>
-      <c r="P9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="16"/>
+      <c r="P9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="34"/>
       <c r="R9" s="12">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="3">
-        <v>650</v>
+      <c r="T9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9">
+        <f>895/3</f>
+        <v>298.33333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="15.75" customHeight="1">
+      <c r="B10" s="3">
+        <v>370</v>
+      </c>
+      <c r="C10" s="4">
+        <v>450</v>
       </c>
       <c r="D10" s="4">
-        <v>440</v>
-      </c>
-      <c r="E10" s="4">
-        <f>4700/2</f>
-        <v>2350</v>
+        <v>4390</v>
+      </c>
+      <c r="F10" s="25">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="27">
+        <f>604/2</f>
+        <v>302</v>
       </c>
       <c r="K10" s="13">
         <v>2</v>
       </c>
-      <c r="L10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="16"/>
+      <c r="L10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="34"/>
       <c r="N10" s="12">
         <v>34</v>
       </c>
       <c r="O10" s="13">
         <v>1</v>
       </c>
-      <c r="P10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="16"/>
+      <c r="P10" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="34"/>
       <c r="R10" s="12">
         <v>1100</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="3">
-        <v>200</v>
-      </c>
-      <c r="D11" s="4">
-        <v>830</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2860</v>
+      <c r="T10" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10">
+        <f>875/4</f>
+        <v>218.75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="F11" s="25">
+        <v>2</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="27">
+        <f>895/3</f>
+        <v>298.33333333333331</v>
       </c>
       <c r="K11" s="13">
         <v>1</v>
       </c>
-      <c r="L11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="16"/>
+      <c r="L11" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="34"/>
       <c r="N11" s="12">
         <v>2600</v>
       </c>
       <c r="O11" s="13">
         <v>1</v>
       </c>
-      <c r="P11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="16"/>
+      <c r="P11" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="34"/>
       <c r="R11" s="12">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="3">
-        <v>370</v>
-      </c>
-      <c r="D12" s="4">
-        <v>450</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4390</v>
+    <row r="12" spans="2:23" ht="15.75" customHeight="1">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="25">
+        <v>2</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27">
+        <f>875/4</f>
+        <v>218.75</v>
       </c>
       <c r="K12" s="13">
         <v>1</v>
       </c>
-      <c r="L12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="16"/>
+      <c r="L12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="34"/>
       <c r="N12" s="12">
         <v>1100</v>
       </c>
       <c r="O12" s="13">
         <v>1</v>
       </c>
-      <c r="P12" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="27"/>
+      <c r="P12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="16"/>
       <c r="R12" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="3">
-        <v>5300</v>
-      </c>
+    <row r="13" spans="2:23" ht="15.75" customHeight="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27">
+        <v>2600</v>
+      </c>
       <c r="K13" s="13">
         <v>1</v>
       </c>
-      <c r="L13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="16"/>
+      <c r="L13" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="34"/>
       <c r="N13" s="12">
         <v>75</v>
       </c>
       <c r="O13" s="13">
         <v>4</v>
       </c>
-      <c r="P13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="16"/>
+      <c r="P13" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="34"/>
       <c r="R13" s="12">
         <f>4*3</f>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="3"/>
+    <row r="14" spans="2:23">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="27">
+        <v>1100</v>
+      </c>
       <c r="K14" s="13">
         <v>1</v>
       </c>
-      <c r="L14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="16"/>
+      <c r="L14" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="34"/>
       <c r="N14" s="12">
         <v>75</v>
       </c>
       <c r="O14" s="13">
         <v>13</v>
       </c>
-      <c r="P14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="16"/>
+      <c r="P14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="34"/>
       <c r="R14" s="12">
         <f>13*3</f>
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="3"/>
+    <row r="15" spans="2:23">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27">
+        <f>721/5</f>
+        <v>144.19999999999999</v>
+      </c>
       <c r="K15" s="13">
         <v>1</v>
       </c>
-      <c r="L15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="16"/>
+      <c r="L15" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="34"/>
       <c r="N15" s="12">
         <v>65</v>
       </c>
       <c r="O15" s="13">
         <v>1</v>
       </c>
-      <c r="P15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="16"/>
+      <c r="P15" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="34"/>
       <c r="R15" s="12">
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+    <row r="16" spans="2:23">
+      <c r="B16" s="5">
+        <f>SUM(B2:B15)</f>
+        <v>11820</v>
+      </c>
+      <c r="C16" s="10">
+        <f>SUM(C2:C15)</f>
+        <v>6153</v>
+      </c>
+      <c r="D16" s="10">
+        <f>SUM(D2:D15)</f>
+        <v>18837</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="27">
+        <v>121</v>
+      </c>
       <c r="K16" s="13">
         <v>1</v>
       </c>
-      <c r="L16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="16"/>
+      <c r="L16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="34"/>
       <c r="N16" s="12">
         <v>25</v>
       </c>
       <c r="O16" s="13">
         <v>3</v>
       </c>
-      <c r="P16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="16"/>
+      <c r="P16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="34"/>
       <c r="R16" s="12">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+    <row r="17" spans="2:18">
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="17">
+        <f>SUM(B16:D16)</f>
+        <v>36810</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="27">
+        <v>137</v>
+      </c>
       <c r="K17" s="13">
         <v>4</v>
       </c>
-      <c r="L17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="16"/>
+      <c r="L17" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="34"/>
       <c r="N17" s="12">
         <f>4*3</f>
         <v>12</v>
@@ -1282,34 +1782,41 @@
       <c r="O17" s="13">
         <v>1</v>
       </c>
-      <c r="P17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="16"/>
+      <c r="P17" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="34"/>
       <c r="R17" s="12">
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="5">
-        <f>SUM(C4:C17)</f>
-        <v>11820</v>
-      </c>
-      <c r="D18" s="10">
-        <f>SUM(D4:D17)</f>
-        <v>6153</v>
-      </c>
-      <c r="E18" s="10">
-        <f>SUM(E4:E17)</f>
-        <v>18837</v>
+    <row r="18" spans="2:18">
+      <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="19">
+        <f>(C17/3)</f>
+        <v>12270</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="F18" s="25">
+        <v>1</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="27">
+        <f>524/5</f>
+        <v>104.8</v>
       </c>
       <c r="K18" s="13">
         <v>13</v>
       </c>
-      <c r="L18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="16"/>
+      <c r="L18" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="34"/>
       <c r="N18" s="12">
         <f>13*3</f>
         <v>39</v>
@@ -1317,326 +1824,449 @@
       <c r="O18" s="13">
         <v>4</v>
       </c>
-      <c r="P18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="16"/>
+      <c r="P18" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="34"/>
       <c r="R18" s="12">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="18">
-        <f>SUM(C18:E18)</f>
-        <v>36810</v>
-      </c>
-      <c r="E19" s="19"/>
+    <row r="19" spans="2:18">
+      <c r="B19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="21">
+        <f>SUM(B2:B15)/3</f>
+        <v>3940</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="F19" s="25">
+        <v>4</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="27">
+        <f>78/4</f>
+        <v>19.5</v>
+      </c>
       <c r="K19" s="13">
         <v>1</v>
       </c>
-      <c r="L19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="16"/>
+      <c r="L19" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="34"/>
       <c r="N19" s="12">
         <v>700</v>
       </c>
       <c r="O19" s="13">
         <v>3</v>
       </c>
-      <c r="P19" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="16"/>
+      <c r="P19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" s="34"/>
       <c r="R19" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="20">
-        <f>(D19/3)</f>
-        <v>12270</v>
-      </c>
-      <c r="E20" s="21"/>
+    <row r="20" spans="2:18">
+      <c r="B20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="21">
+        <f>SUM(C2:C15)/3</f>
+        <v>2051</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="F20" s="25">
+        <v>13</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="27">
+        <f>156/13</f>
+        <v>12</v>
+      </c>
       <c r="K20" s="13">
         <v>3</v>
       </c>
-      <c r="L20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="16"/>
+      <c r="L20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="34"/>
       <c r="N20" s="12">
         <v>150</v>
       </c>
       <c r="O20" s="13">
         <v>3</v>
       </c>
-      <c r="P20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="16"/>
+      <c r="P20" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="34"/>
       <c r="R20" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="22">
-        <f>SUM(C4:C17)/3</f>
-        <v>3940</v>
-      </c>
-      <c r="E21" s="23"/>
+    <row r="21" spans="2:18">
+      <c r="B21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="37">
+        <f>SUM(D2:D15)/3</f>
+        <v>6279</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="F21" s="25">
+        <v>1</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="27">
+        <v>700</v>
+      </c>
       <c r="K21" s="13">
         <v>1</v>
       </c>
-      <c r="L21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="16"/>
+      <c r="L21" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="34"/>
       <c r="N21" s="12">
         <v>370</v>
       </c>
       <c r="O21" s="13">
         <v>3</v>
       </c>
-      <c r="P21" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="16"/>
+      <c r="P21" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="34"/>
       <c r="R21" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="22">
-        <f>SUM(D4:D17)/3</f>
-        <v>2051</v>
-      </c>
-      <c r="E22" s="23"/>
+    <row r="22" spans="2:18">
+      <c r="F22" s="25">
+        <v>3</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="27">
+        <f>(524/5)*3</f>
+        <v>314.39999999999998</v>
+      </c>
       <c r="K22" s="13">
         <v>4</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" s="16"/>
+      <c r="L22" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="34"/>
       <c r="N22" s="12">
         <v>80</v>
       </c>
       <c r="O22" s="13">
         <v>3</v>
       </c>
-      <c r="P22" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q22" s="16"/>
+      <c r="P22" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="34"/>
       <c r="R22" s="12">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="24">
-        <f>SUM(E4:E17)/3</f>
-        <v>6279</v>
-      </c>
-      <c r="E23" s="23"/>
+    <row r="23" spans="2:18">
+      <c r="F23" s="25">
+        <v>1</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="27">
+        <v>370</v>
+      </c>
       <c r="K23" s="13">
         <v>3</v>
       </c>
-      <c r="L23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="16"/>
+      <c r="L23" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="34"/>
       <c r="N23" s="12">
         <v>10</v>
       </c>
       <c r="O23" s="13">
         <v>5</v>
       </c>
-      <c r="P23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="16"/>
+      <c r="P23" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" s="34"/>
       <c r="R23" s="12">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18">
+      <c r="F24" s="25">
+        <v>4</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="27">
+        <f>139/4</f>
+        <v>34.75</v>
+      </c>
       <c r="K24" s="13">
         <v>3</v>
       </c>
-      <c r="L24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="16"/>
+      <c r="L24" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="34"/>
       <c r="N24" s="12">
         <v>30</v>
       </c>
       <c r="O24" s="13">
         <v>1</v>
       </c>
-      <c r="P24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="16"/>
+      <c r="P24" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="34"/>
       <c r="R24" s="12">
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18">
+      <c r="F25" s="25">
+        <v>3</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="27">
+        <f>78/3</f>
+        <v>26</v>
+      </c>
       <c r="K25" s="13">
         <v>3</v>
       </c>
-      <c r="L25" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="16"/>
+      <c r="L25" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" s="34"/>
       <c r="N25" s="12">
         <v>35</v>
       </c>
       <c r="O25" s="13">
         <v>4</v>
       </c>
-      <c r="P25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q25" s="16"/>
+      <c r="P25" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="34"/>
       <c r="R25" s="12">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18">
+      <c r="F26" s="25">
+        <v>3</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="27">
+        <f>28*3</f>
+        <v>84</v>
+      </c>
       <c r="K26" s="13">
         <v>3</v>
       </c>
-      <c r="L26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="16"/>
+      <c r="L26" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="34"/>
       <c r="N26" s="12">
         <v>1800</v>
       </c>
       <c r="O26" s="13">
         <v>1</v>
       </c>
-      <c r="P26" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q26" s="16"/>
+      <c r="P26" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="34"/>
       <c r="R26" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18">
+      <c r="F27" s="25">
+        <v>3</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="27">
+        <f>67/5</f>
+        <v>13.4</v>
+      </c>
       <c r="K27" s="13">
         <v>5</v>
       </c>
-      <c r="L27" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="16"/>
+      <c r="L27" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="34"/>
       <c r="N27" s="12">
         <v>85</v>
       </c>
       <c r="O27" s="13">
         <v>1</v>
       </c>
-      <c r="P27" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="16"/>
+      <c r="P27" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="34"/>
       <c r="R27" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18">
+      <c r="F28" s="25">
+        <v>3</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="27">
+        <v>1800</v>
+      </c>
       <c r="K28" s="13">
         <v>1</v>
       </c>
-      <c r="L28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" s="16"/>
+      <c r="L28" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="34"/>
       <c r="N28" s="12">
         <v>250</v>
       </c>
       <c r="O28" s="13">
         <v>1</v>
       </c>
-      <c r="P28" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" s="16"/>
+      <c r="P28" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="34"/>
       <c r="R28" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18">
+      <c r="F29" s="25">
+        <v>5</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="27">
+        <f>(695/10)*5</f>
+        <v>347.5</v>
+      </c>
       <c r="K29" s="13">
         <v>4</v>
       </c>
-      <c r="L29" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M29" s="16"/>
+      <c r="L29" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="34"/>
       <c r="N29" s="12">
         <v>40</v>
       </c>
       <c r="O29" s="13">
         <v>1</v>
       </c>
-      <c r="P29" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q29" s="16"/>
+      <c r="P29" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q29" s="34"/>
       <c r="R29" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18">
+      <c r="F30" s="25">
+        <v>1</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="27">
+        <v>250</v>
+      </c>
       <c r="K30" s="13">
         <v>1</v>
       </c>
-      <c r="L30" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M30" s="16"/>
+      <c r="L30" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="34"/>
       <c r="N30" s="12">
         <v>3</v>
       </c>
       <c r="O30" s="13">
         <v>1</v>
       </c>
-      <c r="P30" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q30" s="16"/>
+      <c r="P30" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="34"/>
       <c r="R30" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18">
+      <c r="F31" s="25">
+        <v>4</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="29"/>
+      <c r="I31" s="27">
+        <f>28*4</f>
+        <v>112</v>
+      </c>
       <c r="K31" s="13">
         <v>1</v>
       </c>
-      <c r="L31" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M31" s="16"/>
+      <c r="L31" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31" s="34"/>
       <c r="N31" s="12">
         <v>3</v>
       </c>
@@ -1644,117 +2274,178 @@
         <f>SUM(O5:O30)</f>
         <v>64</v>
       </c>
-      <c r="P31" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="16"/>
+      <c r="P31" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q31" s="34"/>
       <c r="R31" s="14">
         <f>SUM(R5:R30)</f>
         <v>4025</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18">
+      <c r="F32" s="25">
+        <v>1</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="27">
+        <v>78</v>
+      </c>
       <c r="K32" s="13">
         <v>1</v>
       </c>
-      <c r="L32" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M32" s="16"/>
+      <c r="L32" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="34"/>
       <c r="N32" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:14">
+      <c r="F33" s="25">
+        <v>1</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="29"/>
+      <c r="I33" s="27">
+        <v>78</v>
+      </c>
       <c r="K33" s="13">
         <v>1</v>
       </c>
-      <c r="L33" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M33" s="16"/>
+      <c r="L33" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="34"/>
       <c r="N33" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:14">
+      <c r="F34" s="25">
+        <v>1</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="27">
+        <v>78</v>
+      </c>
       <c r="K34" s="13">
         <v>1</v>
       </c>
-      <c r="L34" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M34" s="16"/>
+      <c r="L34" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="34"/>
       <c r="N34" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:14">
+      <c r="F35" s="25">
+        <v>1</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="27">
+        <v>78</v>
+      </c>
       <c r="K35" s="13">
         <f>SUM(K5:K34)</f>
         <v>69</v>
       </c>
-      <c r="L35" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="17"/>
+      <c r="L35" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="36"/>
       <c r="N35" s="14">
         <f>SUM(N5:N34)</f>
         <v>7672</v>
       </c>
     </row>
+    <row r="36" spans="6:14">
+      <c r="F36" s="25">
+        <v>1</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="27">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14">
+      <c r="F37" s="25"/>
+      <c r="G37" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="27">
+        <f>SUM(I5:I36)</f>
+        <v>9739.8333333333321</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14">
+      <c r="F38" s="26"/>
+      <c r="G38" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="30"/>
+      <c r="I38" s="28">
+        <f>(I37/167)</f>
+        <v>58.322355289421154</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
+  <mergeCells count="103">
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="L35:M35"/>
@@ -1771,6 +2462,56 @@
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
